--- a/biology/Botanique/Blumea/Blumea.xlsx
+++ b/biology/Botanique/Blumea/Blumea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blumea sont un genre de plantes dicotylédones.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (24 janvier 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (24 janvier 2018) :
 Blumea adamsii J.-P. Lebrun &amp; A. L. Stork
 Blumea adenophora Franch.
 Blumea alata (D. Don) DC.
@@ -616,20 +630,20 @@
 Blumea viscosa (Mill.) Badillo
 Blumea volkensii (O. Hoffm.) J.-P. Lebrun &amp; A. L. Stork
 Blumea zeylanica Grierson
-Selon GRIN            (24 janvier 2018)[2] :
+Selon GRIN            (24 janvier 2018) :
 Blumea balsamifera (L.) DC.
 Blumea densiflora DC.
 Blumea lacera (Burm. f.) DC.
 Blumea lanceolaria (Roxb.) Druce
 Blumea riparia DC.
 Blumea sinuata (Lour.) Merr.
-Selon ITIS      (24 janvier 2018)[3] :
+Selon ITIS      (24 janvier 2018) :
 Blumea balsamifera (L) DC
 Blumea lacera (Burm. f.) DC.
 Blumea laciniata (Roxb.) DC.
 Blumea sessiliflora Decne.
 Blumea viscosa (Mill.) Badillo
-Selon NCBI  (24 janvier 2018)[4] :
+Selon NCBI  (24 janvier 2018) :
 Blumea adamsii
 Blumea amakidophora
 Blumea arfakiana
@@ -670,7 +684,7 @@
 Blumea sylvatica
 Blumea tenella
 Blumea virens
-Selon The Plant List            (24 janvier 2018)[5] :
+Selon The Plant List            (24 janvier 2018) :
 Blumea adamsii J.-P.Lebrun &amp; Stork
 Blumea adenophora Franch.
 Blumea amplectens DC.
@@ -778,7 +792,7 @@
 Blumea viscosa (Mill.) V.M.Badillo
 Blumea volkensii (O.Hoffm.) J.-P.Lebrun &amp; Stork
 Blumea zeylanica Grierson
-Selon Tropicos                                           (24 janvier 2018)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Blumea abyssinica Sch. Bip. ex A. Rich.
 Blumea adenophora Franch.
 Blumea alata (D. Don) DC.
